--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1617,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2375,6 +2375,14 @@
       </c>
       <c r="B94" s="4">
         <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B95" s="4">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
